--- a/drn2/CPL.xlsx
+++ b/drn2/CPL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
   <si>
     <t>Designator</t>
   </si>
@@ -31,24 +31,30 @@
     <t>Rotation</t>
   </si>
   <si>
-    <t>J11</t>
+    <t>J3</t>
   </si>
   <si>
     <t>top</t>
   </si>
   <si>
-    <t>J3</t>
-  </si>
-  <si>
-    <t>J10</t>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>R9</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
+    <t>C4</t>
+  </si>
+  <si>
     <t>J3_F2_BAT1</t>
   </si>
   <si>
+    <t>C2</t>
+  </si>
+  <si>
     <t>J4_M0_MOT0</t>
   </si>
   <si>
@@ -58,51 +64,48 @@
     <t>J13</t>
   </si>
   <si>
+    <t>C3</t>
+  </si>
+  <si>
     <t>J4_M3_MOT3</t>
   </si>
   <si>
+    <t>J15VBECOUT1</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>J14GND1</t>
+  </si>
+  <si>
+    <t>J4</t>
+  </si>
+  <si>
+    <t>R3</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>J4_M4_BEC_IN1</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
     <t>J12</t>
   </si>
   <si>
-    <t>ACCMAG1</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>J15</t>
-  </si>
-  <si>
-    <t>J4</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>J4_M4_BEC_IN1</t>
-  </si>
-  <si>
-    <t>GND2</t>
-  </si>
-  <si>
-    <t>J8</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>GND1</t>
-  </si>
-  <si>
-    <t>J5</t>
-  </si>
-  <si>
     <t>R2</t>
   </si>
   <si>
@@ -112,33 +115,30 @@
     <t>J16</t>
   </si>
   <si>
-    <t>J9</t>
-  </si>
-  <si>
     <t>J4_M2_MOT2</t>
   </si>
   <si>
-    <t>GND3</t>
+    <t>R10</t>
   </si>
   <si>
     <t>D6</t>
   </si>
   <si>
+    <t>U1</t>
+  </si>
+  <si>
     <t>J3_F1_BEC_OUT1</t>
   </si>
   <si>
+    <t>C1</t>
+  </si>
+  <si>
     <t>J7</t>
   </si>
   <si>
     <t>J2</t>
   </si>
   <si>
-    <t>J14</t>
-  </si>
-  <si>
-    <t>ACCGYRO1</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>J4_M1_MOT1</t>
-  </si>
-  <si>
-    <t>GND4</t>
   </si>
   <si>
     <t>R6</t>
@@ -486,7 +483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -517,16 +514,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C2">
-        <v>-56.275</v>
+        <v>-80</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -534,16 +531,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="C3">
-        <v>-79.97499999999999</v>
+        <v>-83.5</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -551,10 +548,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>85.25</v>
+        <v>121.5</v>
       </c>
       <c r="C4">
-        <v>-81.29000000000001</v>
+        <v>-80</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -585,16 +582,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>67.40000000000001</v>
+        <v>109.5</v>
       </c>
       <c r="C6">
-        <v>-47</v>
+        <v>-80.5</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -605,7 +602,7 @@
         <v>67.40000000000001</v>
       </c>
       <c r="C7">
-        <v>-73</v>
+        <v>-47</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -619,16 +616,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>145.5</v>
+        <v>118.7</v>
       </c>
       <c r="C8">
-        <v>-80</v>
+        <v>-81.7</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -636,16 +633,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>165</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C9">
-        <v>-65.79000000000001</v>
+        <v>-73</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -653,10 +650,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>117.9</v>
+        <v>145.5</v>
       </c>
       <c r="C10">
-        <v>-108</v>
+        <v>-80</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -673,13 +670,13 @@
         <v>165</v>
       </c>
       <c r="C11">
-        <v>-75.29000000000001</v>
+        <v>-60.475</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
       </c>
       <c r="E11">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -687,16 +684,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>108.75</v>
+        <v>115</v>
       </c>
       <c r="C12">
-        <v>-83.2625</v>
+        <v>-83.5</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -704,16 +701,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>154</v>
+        <v>117.9</v>
       </c>
       <c r="C13">
-        <v>-83.5</v>
+        <v>-108</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -721,10 +718,10 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="C14">
-        <v>-98</v>
+        <v>-92.47499999999999</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -738,16 +735,16 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>85.92</v>
+        <v>106.5</v>
       </c>
       <c r="C15">
-        <v>-86</v>
+        <v>-85</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -755,16 +752,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>130.5</v>
+        <v>154</v>
       </c>
       <c r="C16">
-        <v>-80</v>
+        <v>-83.5</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -772,16 +769,16 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="C17">
-        <v>-95</v>
+        <v>-98</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -789,10 +786,10 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>164</v>
+        <v>111</v>
       </c>
       <c r="C18">
-        <v>-47</v>
+        <v>-92.5</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
@@ -806,10 +803,10 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>67.40000000000001</v>
+        <v>136.5</v>
       </c>
       <c r="C19">
-        <v>-60</v>
+        <v>-80</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -823,16 +820,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>174</v>
+        <v>86</v>
       </c>
       <c r="C20">
-        <v>-107</v>
+        <v>-95</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -840,16 +837,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>114.58</v>
+        <v>121.5</v>
       </c>
       <c r="C21">
-        <v>-78.5</v>
+        <v>-83</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
       <c r="E21">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -857,10 +854,10 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>164.2125</v>
+        <v>164</v>
       </c>
       <c r="C22">
-        <v>-44</v>
+        <v>-47</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -874,10 +871,10 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>67</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="C23">
-        <v>-107</v>
+        <v>-60</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -891,10 +888,10 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>120.5</v>
+        <v>164.2125</v>
       </c>
       <c r="C24">
-        <v>-91</v>
+        <v>-44</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -908,10 +905,10 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C25">
-        <v>-95</v>
+        <v>-70.97499999999999</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -925,16 +922,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>73.84</v>
+        <v>164</v>
       </c>
       <c r="C26">
-        <v>-37</v>
+        <v>-95</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -942,16 +939,16 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>160.75</v>
+        <v>73.84</v>
       </c>
       <c r="C27">
-        <v>-70.97499999999999</v>
+        <v>-37</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -959,10 +956,10 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>85.25</v>
+        <v>160.75</v>
       </c>
       <c r="C28">
-        <v>-69.54000000000001</v>
+        <v>-76.04000000000001</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
@@ -993,10 +990,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="C30">
-        <v>-34</v>
+        <v>-85</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -1027,16 +1024,16 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>88</v>
+        <v>115.6</v>
       </c>
       <c r="C32">
-        <v>-55.6</v>
+        <v>-78.90000000000001</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1044,16 +1041,16 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>123</v>
+        <v>88</v>
       </c>
       <c r="C33">
-        <v>-80</v>
+        <v>-55.6</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1061,16 +1058,16 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>101.645</v>
+        <v>117</v>
       </c>
       <c r="C34">
-        <v>-69.755</v>
+        <v>-83.5</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1078,16 +1075,16 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>85.92</v>
+        <v>131.9</v>
       </c>
       <c r="C35">
-        <v>-90.65000000000001</v>
+        <v>-80.075</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1095,16 +1092,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>103.5</v>
+        <v>101.645</v>
       </c>
       <c r="C36">
-        <v>-83</v>
+        <v>-69.755</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1180,32 +1177,15 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C41">
-        <v>-34</v>
+        <v>-79.5</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" t="s">
-        <v>46</v>
-      </c>
-      <c r="B42">
-        <v>149</v>
-      </c>
-      <c r="C42">
-        <v>-79.5</v>
-      </c>
-      <c r="D42" t="s">
-        <v>6</v>
-      </c>
-      <c r="E42">
         <v>-90</v>
       </c>
     </row>

--- a/drn2/CPL.xlsx
+++ b/drn2/CPL.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="48">
   <si>
     <t>Designator</t>
   </si>
@@ -61,7 +61,7 @@
     <t>J1</t>
   </si>
   <si>
-    <t>J13</t>
+    <t>R7</t>
   </si>
   <si>
     <t>C3</t>
@@ -70,12 +70,18 @@
     <t>J4_M3_MOT3</t>
   </si>
   <si>
+    <t>D7</t>
+  </si>
+  <si>
     <t>J15VBECOUT1</t>
   </si>
   <si>
     <t>R8</t>
   </si>
   <si>
+    <t>RPI02</t>
+  </si>
+  <si>
     <t>D1</t>
   </si>
   <si>
@@ -88,6 +94,9 @@
     <t>J4</t>
   </si>
   <si>
+    <t>J9</t>
+  </si>
+  <si>
     <t>R3</t>
   </si>
   <si>
@@ -97,21 +106,21 @@
     <t>R1</t>
   </si>
   <si>
-    <t>J4_M4_BEC_IN1</t>
+    <t>J10</t>
   </si>
   <si>
     <t>D4</t>
   </si>
   <si>
-    <t>J12</t>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R14</t>
   </si>
   <si>
     <t>R2</t>
   </si>
   <si>
-    <t>J6</t>
-  </si>
-  <si>
     <t>J16</t>
   </si>
   <si>
@@ -127,18 +136,12 @@
     <t>U1</t>
   </si>
   <si>
-    <t>J3_F1_BEC_OUT1</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>J7</t>
   </si>
   <si>
-    <t>J2</t>
-  </si>
-  <si>
     <t>D2</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>R6</t>
+  </si>
+  <si>
+    <t>U3</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -514,16 +520,16 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="C2">
-        <v>-80</v>
+        <v>-160.125</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -531,10 +537,10 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>98.17</v>
       </c>
       <c r="C3">
-        <v>-83.5</v>
+        <v>-157.975</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -548,10 +554,10 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>121.5</v>
+        <v>106.67</v>
       </c>
       <c r="C4">
-        <v>-80</v>
+        <v>-154.475</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
@@ -565,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>149</v>
+        <v>157.8</v>
       </c>
       <c r="C5">
-        <v>-83.5</v>
+        <v>-141</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -582,10 +588,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>109.5</v>
+        <v>94.67</v>
       </c>
       <c r="C6">
-        <v>-80.5</v>
+        <v>-154.975</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -599,10 +605,10 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>67.40000000000001</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="C7">
-        <v>-47</v>
+        <v>-170</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
@@ -616,10 +622,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>118.7</v>
+        <v>103.87</v>
       </c>
       <c r="C8">
-        <v>-81.7</v>
+        <v>-156.175</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -633,10 +639,10 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>67.40000000000001</v>
+        <v>88</v>
       </c>
       <c r="C9">
-        <v>-73</v>
+        <v>-170</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
@@ -650,16 +656,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>145.5</v>
+        <v>131</v>
       </c>
       <c r="C10">
-        <v>-80</v>
+        <v>-160.1</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -667,10 +673,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>165</v>
+        <v>134.7125</v>
       </c>
       <c r="C11">
-        <v>-60.475</v>
+        <v>-160.11875</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -684,10 +690,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>115</v>
+        <v>100.17</v>
       </c>
       <c r="C12">
-        <v>-83.5</v>
+        <v>-157.975</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -701,10 +707,10 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>117.9</v>
+        <v>143.4</v>
       </c>
       <c r="C13">
-        <v>-108</v>
+        <v>-170</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
@@ -718,10 +724,10 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>115</v>
+        <v>134.7125</v>
       </c>
       <c r="C14">
-        <v>-92.47499999999999</v>
+        <v>-158.51875</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -735,10 +741,10 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>106.5</v>
+        <v>157.4</v>
       </c>
       <c r="C15">
-        <v>-85</v>
+        <v>-154.725</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -752,16 +758,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>154</v>
+        <v>92.25</v>
       </c>
       <c r="C16">
-        <v>-83.5</v>
+        <v>-158.25</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -769,16 +775,16 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>164</v>
+        <v>86.94499999999999</v>
       </c>
       <c r="C17">
-        <v>-98</v>
+        <v>-140.055</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -786,16 +792,16 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>111</v>
+        <v>146.3</v>
       </c>
       <c r="C18">
-        <v>-92.5</v>
+        <v>-138.6</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -803,10 +809,10 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>136.5</v>
+        <v>157.8</v>
       </c>
       <c r="C19">
-        <v>-80</v>
+        <v>-182.6</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -820,16 +826,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>86</v>
+        <v>157.45</v>
       </c>
       <c r="C20">
-        <v>-95</v>
+        <v>-145.66</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -837,10 +843,10 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>121.5</v>
+        <v>123</v>
       </c>
       <c r="C21">
-        <v>-83</v>
+        <v>-160.125</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -854,16 +860,16 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>164</v>
+        <v>83.65000000000001</v>
       </c>
       <c r="C22">
-        <v>-47</v>
+        <v>-159.8</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -871,16 +877,16 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>67.40000000000001</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C23">
-        <v>-60</v>
+        <v>-181</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -888,10 +894,10 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>164.2125</v>
+        <v>106.67</v>
       </c>
       <c r="C24">
-        <v>-44</v>
+        <v>-157.475</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -905,10 +911,10 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>165</v>
+        <v>157.8</v>
       </c>
       <c r="C25">
-        <v>-70.97499999999999</v>
+        <v>-139.4</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -922,16 +928,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>164</v>
+        <v>64.7</v>
       </c>
       <c r="C26">
-        <v>-95</v>
+        <v>-160.94</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -939,16 +945,16 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>73.84</v>
+        <v>157.8</v>
       </c>
       <c r="C27">
-        <v>-37</v>
+        <v>-137.8</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -956,16 +962,16 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>160.75</v>
+        <v>68.05</v>
       </c>
       <c r="C28">
-        <v>-76.04000000000001</v>
+        <v>-148.65</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -973,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>174.4</v>
+        <v>68.05</v>
       </c>
       <c r="C29">
-        <v>-71</v>
+        <v>-151.7</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -990,10 +996,10 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>110</v>
+        <v>157.8</v>
       </c>
       <c r="C30">
-        <v>-85</v>
+        <v>-181</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
@@ -1007,10 +1013,10 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>86</v>
+        <v>151.9</v>
       </c>
       <c r="C31">
-        <v>-98</v>
+        <v>-155.58</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
@@ -1024,16 +1030,16 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>115.6</v>
+        <v>124.8</v>
       </c>
       <c r="C32">
-        <v>-78.90000000000001</v>
+        <v>-170</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1041,16 +1047,16 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>88</v>
+        <v>95.75</v>
       </c>
       <c r="C33">
-        <v>-55.6</v>
+        <v>-158.25</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1058,16 +1064,16 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>117</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C34">
-        <v>-83.5</v>
+        <v>-182.6</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
       </c>
       <c r="E34">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1075,16 +1081,16 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>131.9</v>
+        <v>100.77</v>
       </c>
       <c r="C35">
-        <v>-80.075</v>
+        <v>-153.375</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1092,16 +1098,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>101.645</v>
+        <v>102.17</v>
       </c>
       <c r="C36">
-        <v>-69.755</v>
+        <v>-157.975</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1109,16 +1115,16 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>151.5</v>
+        <v>119</v>
       </c>
       <c r="C37">
-        <v>-83.5</v>
+        <v>-160.14</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
       </c>
       <c r="E37">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1126,10 +1132,10 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>154.02</v>
+        <v>147.9</v>
       </c>
       <c r="C38">
-        <v>-79.5</v>
+        <v>-138.6</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1143,16 +1149,16 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>151.51</v>
+        <v>145.3</v>
       </c>
       <c r="C39">
-        <v>-79.5</v>
+        <v>-141.7</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1160,16 +1166,16 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>117.9</v>
+        <v>146.9</v>
       </c>
       <c r="C40">
-        <v>-35</v>
+        <v>-141.7</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1177,16 +1183,50 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>149</v>
+        <v>106.4</v>
       </c>
       <c r="C41">
-        <v>-79.5</v>
+        <v>-170</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>-90</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>157.8</v>
+      </c>
+      <c r="C42">
+        <v>-142.6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>70.56999999999999</v>
+      </c>
+      <c r="C43">
+        <v>-154.07</v>
+      </c>
+      <c r="D43" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/drn2/CPL.xlsx
+++ b/drn2/CPL.xlsx
@@ -73,27 +73,24 @@
     <t>D7</t>
   </si>
   <si>
-    <t>J15VBECOUT1</t>
-  </si>
-  <si>
     <t>R8</t>
   </si>
   <si>
-    <t>RPI02</t>
-  </si>
-  <si>
     <t>D1</t>
   </si>
   <si>
     <t>D5</t>
   </si>
   <si>
-    <t>J14GND1</t>
+    <t>J2</t>
   </si>
   <si>
     <t>J4</t>
   </si>
   <si>
+    <t>MAN1</t>
+  </si>
+  <si>
     <t>J9</t>
   </si>
   <si>
@@ -106,22 +103,28 @@
     <t>R1</t>
   </si>
   <si>
-    <t>J10</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
+    <t>GND1</t>
+  </si>
+  <si>
     <t>R15</t>
   </si>
   <si>
+    <t>IMU1</t>
+  </si>
+  <si>
     <t>R14</t>
   </si>
   <si>
+    <t>5V1</t>
+  </si>
+  <si>
     <t>R2</t>
   </si>
   <si>
-    <t>J16</t>
+    <t>RPI2</t>
   </si>
   <si>
     <t>J4_M2_MOT2</t>
@@ -133,15 +136,15 @@
     <t>D6</t>
   </si>
   <si>
-    <t>U1</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
     <t>J7</t>
   </si>
   <si>
+    <t>J37</t>
+  </si>
+  <si>
     <t>D2</t>
   </si>
   <si>
@@ -155,9 +158,6 @@
   </si>
   <si>
     <t>R6</t>
-  </si>
-  <si>
-    <t>U3</t>
   </si>
 </sst>
 </file>
@@ -520,10 +520,10 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>127</v>
+        <v>131.35</v>
       </c>
       <c r="C2">
-        <v>-160.125</v>
+        <v>-161.14</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -537,16 +537,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>98.17</v>
+        <v>110.1</v>
       </c>
       <c r="C3">
-        <v>-157.975</v>
+        <v>-161.2</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -554,16 +554,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>106.67</v>
+        <v>107.85</v>
       </c>
       <c r="C4">
-        <v>-154.475</v>
+        <v>-162.16</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -571,16 +571,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>157.8</v>
+        <v>148.75</v>
       </c>
       <c r="C5">
-        <v>-141</v>
+        <v>-160.1</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -588,16 +588,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>94.67</v>
+        <v>105.85</v>
       </c>
       <c r="C6">
-        <v>-154.975</v>
+        <v>-155.175</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -605,16 +605,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>69.40000000000001</v>
+        <v>112.2</v>
       </c>
       <c r="C7">
-        <v>-170</v>
+        <v>-170.2</v>
       </c>
       <c r="D7" t="s">
         <v>6</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -622,10 +622,10 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>103.87</v>
+        <v>114.6</v>
       </c>
       <c r="C8">
-        <v>-156.175</v>
+        <v>-161.2</v>
       </c>
       <c r="D8" t="s">
         <v>6</v>
@@ -639,16 +639,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>88</v>
+        <v>101.067857</v>
       </c>
       <c r="C9">
-        <v>-170</v>
+        <v>-168.832144</v>
       </c>
       <c r="D9" t="s">
         <v>6</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>-135</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -656,10 +656,10 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>131</v>
+        <v>135.1</v>
       </c>
       <c r="C10">
-        <v>-160.1</v>
+        <v>-161.14</v>
       </c>
       <c r="D10" t="s">
         <v>6</v>
@@ -673,10 +673,10 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>134.7125</v>
+        <v>116.8375</v>
       </c>
       <c r="C11">
-        <v>-160.11875</v>
+        <v>-160.8</v>
       </c>
       <c r="D11" t="s">
         <v>6</v>
@@ -690,10 +690,10 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>100.17</v>
+        <v>111.6</v>
       </c>
       <c r="C12">
-        <v>-157.975</v>
+        <v>-161.2</v>
       </c>
       <c r="D12" t="s">
         <v>6</v>
@@ -707,16 +707,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>143.4</v>
+        <v>127.8</v>
       </c>
       <c r="C13">
-        <v>-170</v>
+        <v>-186.75</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -724,10 +724,10 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>134.7125</v>
+        <v>116.8375</v>
       </c>
       <c r="C14">
-        <v>-158.51875</v>
+        <v>-159.2</v>
       </c>
       <c r="D14" t="s">
         <v>6</v>
@@ -741,10 +741,10 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>157.4</v>
+        <v>104.85</v>
       </c>
       <c r="C15">
-        <v>-154.725</v>
+        <v>-162.2</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
@@ -758,16 +758,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>92.25</v>
+        <v>148.75</v>
       </c>
       <c r="C16">
-        <v>-158.25</v>
+        <v>-157.1</v>
       </c>
       <c r="D16" t="s">
         <v>6</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -775,16 +775,16 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>86.94499999999999</v>
+        <v>148.3</v>
       </c>
       <c r="C17">
-        <v>-140.055</v>
+        <v>-190.55</v>
       </c>
       <c r="D17" t="s">
         <v>6</v>
       </c>
       <c r="E17">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -792,16 +792,16 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>146.3</v>
+        <v>76.825</v>
       </c>
       <c r="C18">
-        <v>-138.6</v>
+        <v>-161.2</v>
       </c>
       <c r="D18" t="s">
         <v>6</v>
       </c>
       <c r="E18">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -809,16 +809,16 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>157.8</v>
+        <v>127.6</v>
       </c>
       <c r="C19">
-        <v>-182.6</v>
+        <v>-161.14</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -826,16 +826,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>157.45</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="C20">
-        <v>-145.66</v>
+        <v>-154.45</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -843,10 +843,10 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>123</v>
+        <v>100.35</v>
       </c>
       <c r="C21">
-        <v>-160.125</v>
+        <v>-160.2</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
@@ -860,10 +860,10 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>83.65000000000001</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C22">
-        <v>-159.8</v>
+        <v>-188.95</v>
       </c>
       <c r="D22" t="s">
         <v>6</v>
@@ -877,10 +877,10 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>64.59999999999999</v>
+        <v>107.85</v>
       </c>
       <c r="C23">
-        <v>-181</v>
+        <v>-160.66</v>
       </c>
       <c r="D23" t="s">
         <v>6</v>
@@ -894,10 +894,10 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>106.67</v>
+        <v>148.35</v>
       </c>
       <c r="C24">
-        <v>-157.475</v>
+        <v>-146.65</v>
       </c>
       <c r="D24" t="s">
         <v>6</v>
@@ -911,10 +911,10 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>157.8</v>
+        <v>148.35</v>
       </c>
       <c r="C25">
-        <v>-139.4</v>
+        <v>-145.05</v>
       </c>
       <c r="D25" t="s">
         <v>6</v>
@@ -928,16 +928,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>64.7</v>
+        <v>143.75</v>
       </c>
       <c r="C26">
-        <v>-160.94</v>
+        <v>-157.4</v>
       </c>
       <c r="D26" t="s">
         <v>6</v>
       </c>
       <c r="E26">
-        <v>180</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -945,16 +945,16 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>157.8</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="C27">
-        <v>-137.8</v>
+        <v>-154.7</v>
       </c>
       <c r="D27" t="s">
         <v>6</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -962,16 +962,16 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>68.05</v>
+        <v>111.35</v>
       </c>
       <c r="C28">
-        <v>-148.65</v>
+        <v>-157.7</v>
       </c>
       <c r="D28" t="s">
         <v>6</v>
       </c>
       <c r="E28">
-        <v>-90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -979,10 +979,10 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>68.05</v>
+        <v>90.84999999999999</v>
       </c>
       <c r="C29">
-        <v>-151.7</v>
+        <v>-154.7</v>
       </c>
       <c r="D29" t="s">
         <v>6</v>
@@ -996,16 +996,16 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>157.8</v>
+        <v>143.75</v>
       </c>
       <c r="C30">
-        <v>-181</v>
+        <v>-161.15</v>
       </c>
       <c r="D30" t="s">
         <v>6</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1013,16 +1013,16 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>151.9</v>
+        <v>148.3</v>
       </c>
       <c r="C31">
-        <v>-155.58</v>
+        <v>-188.95</v>
       </c>
       <c r="D31" t="s">
         <v>6</v>
       </c>
       <c r="E31">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1030,16 +1030,16 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>124.8</v>
+        <v>88.395</v>
       </c>
       <c r="C32">
-        <v>-170</v>
+        <v>-146.505</v>
       </c>
       <c r="D32" t="s">
         <v>6</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1047,16 +1047,16 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>95.75</v>
+        <v>123.182144</v>
       </c>
       <c r="C33">
-        <v>-158.25</v>
+        <v>-168.782144</v>
       </c>
       <c r="D33" t="s">
         <v>6</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>-45</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1064,10 +1064,10 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>64.59999999999999</v>
+        <v>104.85</v>
       </c>
       <c r="C34">
-        <v>-182.6</v>
+        <v>-160.7</v>
       </c>
       <c r="D34" t="s">
         <v>6</v>
@@ -1081,10 +1081,10 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>100.77</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="C35">
-        <v>-153.375</v>
+        <v>-190.55</v>
       </c>
       <c r="D35" t="s">
         <v>6</v>
@@ -1098,16 +1098,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>102.17</v>
+        <v>113.1</v>
       </c>
       <c r="C36">
-        <v>-157.975</v>
+        <v>-161.2</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="E36">
-        <v>-90</v>
+        <v>90</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1115,10 +1115,10 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>119</v>
+        <v>123.85</v>
       </c>
       <c r="C37">
-        <v>-160.14</v>
+        <v>-161.14</v>
       </c>
       <c r="D37" t="s">
         <v>6</v>
@@ -1132,10 +1132,10 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>147.9</v>
+        <v>143.76</v>
       </c>
       <c r="C38">
-        <v>-138.6</v>
+        <v>-153.65</v>
       </c>
       <c r="D38" t="s">
         <v>6</v>
@@ -1149,16 +1149,16 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>145.3</v>
+        <v>148.75</v>
       </c>
       <c r="C39">
-        <v>-141.7</v>
+        <v>-158.6</v>
       </c>
       <c r="D39" t="s">
         <v>6</v>
       </c>
       <c r="E39">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1166,16 +1166,16 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>146.9</v>
+        <v>149.4</v>
       </c>
       <c r="C40">
-        <v>-141.7</v>
+        <v>-153.05</v>
       </c>
       <c r="D40" t="s">
         <v>6</v>
       </c>
       <c r="E40">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1183,16 +1183,16 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>106.4</v>
+        <v>147.9</v>
       </c>
       <c r="C41">
-        <v>-170</v>
+        <v>-153.05</v>
       </c>
       <c r="D41" t="s">
         <v>6</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>-90</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1200,10 +1200,10 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>157.8</v>
+        <v>96.45</v>
       </c>
       <c r="C42">
-        <v>-142.6</v>
+        <v>-186.85</v>
       </c>
       <c r="D42" t="s">
         <v>6</v>
@@ -1217,16 +1217,16 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>70.56999999999999</v>
+        <v>146.4</v>
       </c>
       <c r="C43">
-        <v>-154.07</v>
+        <v>-153.05</v>
       </c>
       <c r="D43" t="s">
         <v>6</v>
       </c>
       <c r="E43">
-        <v>90</v>
+        <v>-90</v>
       </c>
     </row>
   </sheetData>
